--- a/biology/Médecine/Malléole_latérale/Malléole_latérale.xlsx
+++ b/biology/Médecine/Malléole_latérale/Malléole_latérale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mall%C3%A9ole_lat%C3%A9rale</t>
+          <t>Malléole_latérale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La malléole latérale (ou malléole externe) correspond chez l'humain (et les primates) à l'extrémité inférieure de la fibula. Elle fait saillie sous la peau latéralement à la cheville.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mall%C3%A9ole_lat%C3%A9rale</t>
+          <t>Malléole_latérale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,86 +523,266 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La malléole latérale est de forme losangique allongée de haut en bas et aplatie transversalement.
 Elle est moins saillante et située nettement plus bas que la malléole médiale.
 Elle présente deux faces (médiale et latérale), deux bords (antérieur et postérieur) et un sommet.
-Face médiale
-Sa face médiale possède une surface articulaire triangulaire à sommet inférieur encroûtée de cartilage : la facette articulaire de la malléole latérale. Elle s'articule avec le talus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Malléole_latérale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mall%C3%A9ole_lat%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Face médiale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa face médiale possède une surface articulaire triangulaire à sommet inférieur encroûtée de cartilage : la facette articulaire de la malléole latérale. Elle s'articule avec le talus.
 En bas et en arrière de la facette articulaire, une fossette appelée fosse de la malléole latérale reçoit l'insertion du ligament talo-fibulaire postérieur.
-Face latérale
-Sa face latérale est dans le prolongement de la face latérale de la fibula. Elle est libre de toute insertion et sous-cutanée.
-Bord antérieur
-Le bord antérieur est convexe vers l’avant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Malléole_latérale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mall%C3%A9ole_lat%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Face latérale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa face latérale est dans le prolongement de la face latérale de la fibula. Elle est libre de toute insertion et sous-cutanée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Malléole_latérale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mall%C3%A9ole_lat%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bord antérieur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le bord antérieur est convexe vers l’avant.
 Il donne insertion :
 dans son tiers supérieur au ligament tibio-fibulaire antérieur,
 dans son tiers moyen au ligament talo-fibulaire antérieur,
-dans son tiers inférieur sans atteindre le sommet au ligament calcanéo-fibulaire.
-Bord postérieur
-Le bord postérieur est en forme de gouttière formant le sillon malléolaire de la fibula permettant le passage des tendons des muscles fibulaires.
-Sommet
-Le sommet est arrondi et situé latéralement par rapport à l’axe médian de la fibula. Il est libre de toute insertion.
+dans son tiers inférieur sans atteindre le sommet au ligament calcanéo-fibulaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Malléole_latérale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mall%C3%A9ole_lat%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bord postérieur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bord postérieur est en forme de gouttière formant le sillon malléolaire de la fibula permettant le passage des tendons des muscles fibulaires.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mall%C3%A9ole_lat%C3%A9rale</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mall%C3%A9ole_lat%C3%A9rale</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Malléole_latérale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mall%C3%A9ole_lat%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sommet</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sommet est arrondi et situé latéralement par rapport à l’axe médian de la fibula. Il est libre de toute insertion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Malléole_latérale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mall%C3%A9ole_lat%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La malléole latérale est palpable sous la peau et c'est un des principaux repères osseux utilisés pour les diagnostics d'entorse ou de fracture de la cheville.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mall%C3%A9ole_lat%C3%A9rale</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mall%C3%A9ole_lat%C3%A9rale</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Malléole_latérale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mall%C3%A9ole_lat%C3%A9rale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez de nombreux mammifères, comme les ruminants ou les équidés, la malléole latérale appartient, comme la malléole médiale, au tibia.
 </t>
